--- a/Updated/SpecSDTM_UpdatedCDISCPILOT_define20.xlsx
+++ b/Updated/SpecSDTM_UpdatedCDISCPILOT_define20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Dictionaries!$A$1:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Documents!$A$1:$C$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Methods!$A$1:$H$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ValueLevel!$A$1:$P$227</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ValueLevel!$A$1:$P$231</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$P$675</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WhereClauses!$A$1:$E$270</definedName>
   </definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11640" uniqueCount="2016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11676" uniqueCount="2016">
   <si>
     <t>Attribute</t>
   </si>
@@ -6781,7 +6781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
@@ -30049,7 +30049,7 @@
       <c r="O655" s="18"/>
       <c r="P655" s="18"/>
     </row>
-    <row r="656" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A656" s="3"/>
       <c r="B656" s="18"/>
       <c r="C656" s="18"/>
@@ -30229,7 +30229,7 @@
       <c r="O665" s="18"/>
       <c r="P665" s="18"/>
     </row>
-    <row r="666" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A666" s="3"/>
       <c r="B666" s="18"/>
       <c r="C666" s="18"/>
@@ -30247,7 +30247,7 @@
       <c r="O666" s="18"/>
       <c r="P666" s="18"/>
     </row>
-    <row r="667" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A667" s="3"/>
       <c r="B667" s="18"/>
       <c r="C667" s="18"/>
@@ -30265,7 +30265,7 @@
       <c r="O667" s="18"/>
       <c r="P667" s="18"/>
     </row>
-    <row r="668" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A668" s="3"/>
       <c r="B668" s="18"/>
       <c r="C668" s="18"/>
@@ -30283,7 +30283,7 @@
       <c r="O668" s="18"/>
       <c r="P668" s="18"/>
     </row>
-    <row r="669" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A669" s="3"/>
       <c r="B669" s="18"/>
       <c r="C669" s="18"/>
@@ -30301,7 +30301,7 @@
       <c r="O669" s="18"/>
       <c r="P669" s="18"/>
     </row>
-    <row r="670" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A670" s="3"/>
       <c r="B670" s="18"/>
       <c r="C670" s="18"/>
@@ -30319,7 +30319,7 @@
       <c r="O670" s="18"/>
       <c r="P670" s="18"/>
     </row>
-    <row r="671" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A671" s="3"/>
       <c r="B671" s="18"/>
       <c r="C671" s="18"/>
@@ -30337,7 +30337,7 @@
       <c r="O671" s="18"/>
       <c r="P671" s="18"/>
     </row>
-    <row r="672" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A672" s="3"/>
       <c r="B672" s="18"/>
       <c r="C672" s="18"/>
@@ -30417,11 +30417,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P227"/>
+  <dimension ref="A1:P231"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36964,7 +36964,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>65</v>
+        <v>2013</v>
       </c>
       <c r="C195" s="23" t="s">
         <v>304</v>
@@ -36996,7 +36996,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>65</v>
+        <v>2013</v>
       </c>
       <c r="C196" s="23" t="s">
         <v>304</v>
@@ -37023,18 +37023,18 @@
         <v>887</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="22">
         <v>196</v>
       </c>
       <c r="B197" s="23" t="s">
-        <v>70</v>
+        <v>2014</v>
       </c>
       <c r="C197" s="23" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D197" s="23" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E197" s="23" t="s">
         <v>500</v>
@@ -37046,10 +37046,13 @@
         <v>141</v>
       </c>
       <c r="J197" s="23" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="K197" s="23" t="s">
-        <v>567</v>
+        <v>565</v>
+      </c>
+      <c r="M197" s="23" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -37057,51 +37060,63 @@
         <v>197</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>70</v>
+        <v>2014</v>
       </c>
       <c r="C198" s="23" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E198" s="23" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F198" s="23" t="s">
-        <v>515</v>
+        <v>508</v>
+      </c>
+      <c r="G198" s="23" t="s">
+        <v>513</v>
       </c>
       <c r="I198" s="23" t="s">
         <v>141</v>
       </c>
       <c r="K198" s="23" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="M198" s="23" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="22">
         <v>198</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>70</v>
+        <v>2015</v>
       </c>
       <c r="C199" s="23" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="E199" s="23" t="s">
         <v>500</v>
       </c>
       <c r="F199" s="23" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="I199" s="23" t="s">
         <v>141</v>
       </c>
+      <c r="J199" s="23" t="s">
+        <v>546</v>
+      </c>
       <c r="K199" s="23" t="s">
-        <v>567</v>
+        <v>565</v>
+      </c>
+      <c r="M199" s="23" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="200" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -37109,31 +37124,34 @@
         <v>199</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>70</v>
+        <v>2015</v>
       </c>
       <c r="C200" s="23" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D200" s="23" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="E200" s="23" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F200" s="23" t="s">
-        <v>919</v>
+        <v>508</v>
+      </c>
+      <c r="G200" s="23" t="s">
+        <v>513</v>
       </c>
       <c r="I200" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="J200" s="23" t="s">
-        <v>937</v>
-      </c>
       <c r="K200" s="23" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="M200" s="23" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="22">
         <v>200</v>
       </c>
@@ -37144,22 +37162,25 @@
         <v>322</v>
       </c>
       <c r="D201" s="23" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E201" s="23" t="s">
         <v>500</v>
       </c>
       <c r="F201" s="23" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="I201" s="23" t="s">
         <v>141</v>
+      </c>
+      <c r="J201" s="23" t="s">
+        <v>541</v>
       </c>
       <c r="K201" s="23" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="22">
         <v>201</v>
       </c>
@@ -37170,13 +37191,13 @@
         <v>322</v>
       </c>
       <c r="D202" s="23" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E202" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F202" s="23" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="I202" s="23" t="s">
         <v>141</v>
@@ -37196,13 +37217,13 @@
         <v>322</v>
       </c>
       <c r="D203" s="23" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="E203" s="23" t="s">
         <v>500</v>
       </c>
       <c r="F203" s="23" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="I203" s="23" t="s">
         <v>141</v>
@@ -37211,7 +37232,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="22">
         <v>203</v>
       </c>
@@ -37222,22 +37243,25 @@
         <v>322</v>
       </c>
       <c r="D204" s="23" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E204" s="23" t="s">
         <v>500</v>
       </c>
       <c r="F204" s="23" t="s">
-        <v>506</v>
+        <v>919</v>
       </c>
       <c r="I204" s="23" t="s">
         <v>141</v>
+      </c>
+      <c r="J204" s="23" t="s">
+        <v>937</v>
       </c>
       <c r="K204" s="23" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="22">
         <v>204</v>
       </c>
@@ -37248,13 +37272,13 @@
         <v>322</v>
       </c>
       <c r="D205" s="23" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="E205" s="23" t="s">
         <v>500</v>
       </c>
       <c r="F205" s="23" t="s">
-        <v>920</v>
+        <v>530</v>
       </c>
       <c r="I205" s="23" t="s">
         <v>141</v>
@@ -37274,10 +37298,10 @@
         <v>322</v>
       </c>
       <c r="D206" s="23" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E206" s="23" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F206" s="23" t="s">
         <v>508</v>
@@ -37289,7 +37313,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="22">
         <v>206</v>
       </c>
@@ -37300,13 +37324,13 @@
         <v>322</v>
       </c>
       <c r="D207" s="23" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="E207" s="23" t="s">
         <v>500</v>
       </c>
       <c r="F207" s="23" t="s">
-        <v>921</v>
+        <v>519</v>
       </c>
       <c r="I207" s="23" t="s">
         <v>141</v>
@@ -37326,13 +37350,13 @@
         <v>322</v>
       </c>
       <c r="D208" s="23" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="E208" s="23" t="s">
         <v>500</v>
       </c>
       <c r="F208" s="23" t="s">
-        <v>922</v>
+        <v>506</v>
       </c>
       <c r="I208" s="23" t="s">
         <v>141</v>
@@ -37341,7 +37365,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="22">
         <v>208</v>
       </c>
@@ -37352,13 +37376,13 @@
         <v>322</v>
       </c>
       <c r="D209" s="23" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="E209" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F209" s="23" t="s">
-        <v>508</v>
+        <v>920</v>
       </c>
       <c r="I209" s="23" t="s">
         <v>141</v>
@@ -37367,7 +37391,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="22">
         <v>209</v>
       </c>
@@ -37378,25 +37402,22 @@
         <v>322</v>
       </c>
       <c r="D210" s="23" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="E210" s="23" t="s">
         <v>500</v>
       </c>
       <c r="F210" s="23" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="I210" s="23" t="s">
         <v>141</v>
-      </c>
-      <c r="J210" s="23" t="s">
-        <v>541</v>
       </c>
       <c r="K210" s="23" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="22">
         <v>210</v>
       </c>
@@ -37407,13 +37428,13 @@
         <v>322</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="E211" s="23" t="s">
         <v>500</v>
       </c>
       <c r="F211" s="23" t="s">
-        <v>507</v>
+        <v>921</v>
       </c>
       <c r="I211" s="23" t="s">
         <v>141</v>
@@ -37422,7 +37443,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="22">
         <v>211</v>
       </c>
@@ -37433,25 +37454,22 @@
         <v>322</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="E212" s="23" t="s">
         <v>500</v>
       </c>
       <c r="F212" s="23" t="s">
-        <v>523</v>
+        <v>922</v>
       </c>
       <c r="I212" s="23" t="s">
         <v>141</v>
-      </c>
-      <c r="J212" s="23" t="s">
-        <v>938</v>
       </c>
       <c r="K212" s="23" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="22">
         <v>212</v>
       </c>
@@ -37462,13 +37480,13 @@
         <v>322</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="E213" s="23" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F213" s="23" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="I213" s="23" t="s">
         <v>141</v>
@@ -37477,7 +37495,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="22">
         <v>213</v>
       </c>
@@ -37488,25 +37506,25 @@
         <v>322</v>
       </c>
       <c r="D214" s="23" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E214" s="23" t="s">
         <v>500</v>
       </c>
       <c r="F214" s="23" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="I214" s="23" t="s">
         <v>141</v>
       </c>
       <c r="J214" s="23" t="s">
-        <v>939</v>
+        <v>541</v>
       </c>
       <c r="K214" s="23" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="22">
         <v>214</v>
       </c>
@@ -37517,25 +37535,22 @@
         <v>322</v>
       </c>
       <c r="D215" s="23" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="E215" s="23" t="s">
         <v>500</v>
       </c>
       <c r="F215" s="23" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="I215" s="23" t="s">
         <v>141</v>
-      </c>
-      <c r="J215" s="23" t="s">
-        <v>940</v>
       </c>
       <c r="K215" s="23" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="22">
         <v>215</v>
       </c>
@@ -37546,22 +37561,25 @@
         <v>322</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="E216" s="23" t="s">
         <v>500</v>
       </c>
       <c r="F216" s="23" t="s">
-        <v>923</v>
+        <v>523</v>
       </c>
       <c r="I216" s="23" t="s">
         <v>141</v>
+      </c>
+      <c r="J216" s="23" t="s">
+        <v>938</v>
       </c>
       <c r="K216" s="23" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="22">
         <v>216</v>
       </c>
@@ -37572,25 +37590,22 @@
         <v>322</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="E217" s="23" t="s">
         <v>500</v>
       </c>
       <c r="F217" s="23" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="I217" s="23" t="s">
         <v>141</v>
-      </c>
-      <c r="J217" s="23" t="s">
-        <v>941</v>
       </c>
       <c r="K217" s="23" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="22">
         <v>217</v>
       </c>
@@ -37601,22 +37616,25 @@
         <v>322</v>
       </c>
       <c r="D218" s="23" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E218" s="23" t="s">
         <v>500</v>
       </c>
       <c r="F218" s="23" t="s">
-        <v>924</v>
+        <v>505</v>
       </c>
       <c r="I218" s="23" t="s">
         <v>141</v>
+      </c>
+      <c r="J218" s="23" t="s">
+        <v>939</v>
       </c>
       <c r="K218" s="23" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="22">
         <v>218</v>
       </c>
@@ -37627,25 +37645,25 @@
         <v>322</v>
       </c>
       <c r="D219" s="23" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="E219" s="23" t="s">
         <v>500</v>
       </c>
       <c r="F219" s="23" t="s">
-        <v>919</v>
+        <v>530</v>
       </c>
       <c r="I219" s="23" t="s">
         <v>141</v>
       </c>
       <c r="J219" s="23" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="K219" s="23" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="22">
         <v>219</v>
       </c>
@@ -37656,13 +37674,13 @@
         <v>322</v>
       </c>
       <c r="D220" s="23" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="E220" s="23" t="s">
         <v>500</v>
       </c>
       <c r="F220" s="23" t="s">
-        <v>515</v>
+        <v>923</v>
       </c>
       <c r="I220" s="23" t="s">
         <v>141</v>
@@ -37671,7 +37689,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="22">
         <v>220</v>
       </c>
@@ -37682,150 +37700,132 @@
         <v>322</v>
       </c>
       <c r="D221" s="23" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="E221" s="23" t="s">
         <v>500</v>
       </c>
       <c r="F221" s="23" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="I221" s="23" t="s">
         <v>141</v>
       </c>
       <c r="J221" s="23" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="K221" s="23" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="22">
         <v>221</v>
       </c>
       <c r="B222" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C222" s="23" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="E222" s="23" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F222" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="G222" s="23" t="s">
-        <v>513</v>
+        <v>924</v>
       </c>
       <c r="I222" s="23" t="s">
         <v>141</v>
       </c>
       <c r="K222" s="23" t="s">
-        <v>563</v>
-      </c>
-      <c r="L222" s="23" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="22">
         <v>222</v>
       </c>
       <c r="B223" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C223" s="23" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="E223" s="23" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F223" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="G223" s="23" t="s">
-        <v>506</v>
+        <v>919</v>
       </c>
       <c r="I223" s="23" t="s">
         <v>141</v>
       </c>
+      <c r="J223" s="23" t="s">
+        <v>942</v>
+      </c>
       <c r="K223" s="23" t="s">
-        <v>563</v>
-      </c>
-      <c r="L223" s="23" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="22">
         <v>223</v>
       </c>
       <c r="B224" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C224" s="23" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D224" s="23" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E224" s="23" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F224" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="G224" s="23" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="I224" s="23" t="s">
         <v>141</v>
       </c>
       <c r="K224" s="23" t="s">
-        <v>563</v>
-      </c>
-      <c r="L224" s="23" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="22">
         <v>224</v>
       </c>
       <c r="B225" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C225" s="23" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D225" s="23" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="E225" s="23" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F225" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="G225" s="23" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="I225" s="23" t="s">
         <v>141</v>
       </c>
+      <c r="J225" s="23" t="s">
+        <v>943</v>
+      </c>
       <c r="K225" s="23" t="s">
-        <v>563</v>
-      </c>
-      <c r="L225" s="23" t="s">
-        <v>949</v>
+        <v>567</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="72" x14ac:dyDescent="0.3">
@@ -37839,7 +37839,7 @@
         <v>329</v>
       </c>
       <c r="D226" s="23" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E226" s="23" t="s">
         <v>503</v>
@@ -37848,7 +37848,7 @@
         <v>508</v>
       </c>
       <c r="G226" s="23" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="I226" s="23" t="s">
         <v>141</v>
@@ -37860,7 +37860,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="22">
         <v>226</v>
       </c>
@@ -37871,7 +37871,7 @@
         <v>329</v>
       </c>
       <c r="D227" s="23" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="E227" s="23" t="s">
         <v>503</v>
@@ -37889,11 +37889,139 @@
         <v>563</v>
       </c>
       <c r="L227" s="23" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A228" s="22">
+        <v>227</v>
+      </c>
+      <c r="B228" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C228" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D228" s="23" t="s">
+        <v>915</v>
+      </c>
+      <c r="E228" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="F228" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="G228" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="I228" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="K228" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="L228" s="23" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A229" s="22">
+        <v>228</v>
+      </c>
+      <c r="B229" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C229" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D229" s="23" t="s">
+        <v>916</v>
+      </c>
+      <c r="E229" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="F229" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="G229" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="I229" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="K229" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="L229" s="23" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A230" s="22">
+        <v>229</v>
+      </c>
+      <c r="B230" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C230" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D230" s="23" t="s">
+        <v>917</v>
+      </c>
+      <c r="E230" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="F230" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="G230" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="I230" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="K230" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="L230" s="23" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A231" s="22">
+        <v>230</v>
+      </c>
+      <c r="B231" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C231" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D231" s="23" t="s">
+        <v>918</v>
+      </c>
+      <c r="E231" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="F231" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="G231" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="I231" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="K231" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="L231" s="23" t="s">
         <v>950</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P227"/>
+  <autoFilter ref="A1:P231"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Updated/SpecSDTM_UpdatedCDISCPILOT_define20.xlsx
+++ b/Updated/SpecSDTM_UpdatedCDISCPILOT_define20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -30419,9 +30419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30497,7 +30497,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>240</v>
@@ -30599,7 +30599,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>56</v>
+        <v>2012</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>240</v>
@@ -31895,7 +31895,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>240</v>
@@ -31931,7 +31931,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>56</v>
+        <v>2012</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>240</v>
@@ -31967,7 +31967,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>56</v>
+        <v>2012</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>240</v>
@@ -38030,9 +38030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E270"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38067,7 +38067,7 @@
         <v>694</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>239</v>
@@ -38084,7 +38084,7 @@
         <v>698</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>239</v>
@@ -38101,7 +38101,7 @@
         <v>698</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>237</v>
@@ -38118,7 +38118,7 @@
         <v>699</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>239</v>
@@ -38135,7 +38135,7 @@
         <v>699</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>237</v>
@@ -38152,7 +38152,7 @@
         <v>700</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>239</v>
@@ -38169,7 +38169,7 @@
         <v>700</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>237</v>
@@ -38186,7 +38186,7 @@
         <v>701</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>239</v>
@@ -38203,7 +38203,7 @@
         <v>701</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>237</v>
@@ -38220,7 +38220,7 @@
         <v>702</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>239</v>
@@ -38237,7 +38237,7 @@
         <v>702</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>237</v>
@@ -38254,7 +38254,7 @@
         <v>703</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>239</v>
@@ -38271,7 +38271,7 @@
         <v>703</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>237</v>
@@ -38288,7 +38288,7 @@
         <v>704</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>239</v>
@@ -38305,7 +38305,7 @@
         <v>704</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>237</v>
@@ -38322,7 +38322,7 @@
         <v>705</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>239</v>
@@ -38339,7 +38339,7 @@
         <v>705</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>237</v>
@@ -38356,7 +38356,7 @@
         <v>706</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>239</v>
@@ -38373,7 +38373,7 @@
         <v>706</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>237</v>
@@ -38390,7 +38390,7 @@
         <v>707</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>239</v>
@@ -38407,7 +38407,7 @@
         <v>707</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>237</v>
@@ -38424,7 +38424,7 @@
         <v>708</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>239</v>
@@ -38441,7 +38441,7 @@
         <v>708</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>237</v>
@@ -38458,7 +38458,7 @@
         <v>709</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>239</v>
@@ -38475,7 +38475,7 @@
         <v>709</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>237</v>
@@ -38492,7 +38492,7 @@
         <v>710</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>239</v>
@@ -38509,7 +38509,7 @@
         <v>710</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>237</v>
@@ -38526,7 +38526,7 @@
         <v>711</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>239</v>
@@ -38543,7 +38543,7 @@
         <v>711</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>237</v>
@@ -38560,7 +38560,7 @@
         <v>712</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>239</v>
@@ -38577,7 +38577,7 @@
         <v>712</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>237</v>
@@ -38594,7 +38594,7 @@
         <v>713</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>239</v>
@@ -38611,7 +38611,7 @@
         <v>713</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>237</v>
@@ -38628,7 +38628,7 @@
         <v>714</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>239</v>
@@ -38645,7 +38645,7 @@
         <v>714</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>237</v>
@@ -38662,7 +38662,7 @@
         <v>715</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>239</v>
@@ -38679,7 +38679,7 @@
         <v>715</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>56</v>
+        <v>2010</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>237</v>
@@ -38696,7 +38696,7 @@
         <v>695</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>239</v>
@@ -38713,7 +38713,7 @@
         <v>716</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>239</v>
@@ -38730,7 +38730,7 @@
         <v>716</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>237</v>
@@ -38747,7 +38747,7 @@
         <v>717</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>239</v>
@@ -38764,7 +38764,7 @@
         <v>717</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>237</v>
@@ -38781,7 +38781,7 @@
         <v>718</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>239</v>
@@ -38798,7 +38798,7 @@
         <v>718</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>237</v>
@@ -38815,7 +38815,7 @@
         <v>719</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>239</v>
@@ -38832,7 +38832,7 @@
         <v>719</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>237</v>
@@ -38849,7 +38849,7 @@
         <v>720</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>239</v>
@@ -38866,7 +38866,7 @@
         <v>720</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>237</v>
@@ -38883,7 +38883,7 @@
         <v>721</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>239</v>
@@ -38900,7 +38900,7 @@
         <v>721</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C51" s="14" t="s">
         <v>237</v>
@@ -38917,7 +38917,7 @@
         <v>722</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>239</v>
@@ -38934,7 +38934,7 @@
         <v>722</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>237</v>
@@ -38951,7 +38951,7 @@
         <v>723</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>239</v>
@@ -38968,7 +38968,7 @@
         <v>723</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>237</v>
@@ -38985,7 +38985,7 @@
         <v>724</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>239</v>
@@ -39002,7 +39002,7 @@
         <v>724</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>237</v>
@@ -39019,7 +39019,7 @@
         <v>725</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>239</v>
@@ -39036,7 +39036,7 @@
         <v>725</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>237</v>
@@ -39053,7 +39053,7 @@
         <v>726</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>239</v>
@@ -39070,7 +39070,7 @@
         <v>726</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>237</v>
@@ -39087,7 +39087,7 @@
         <v>727</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>239</v>
@@ -39104,7 +39104,7 @@
         <v>727</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>237</v>
@@ -39121,7 +39121,7 @@
         <v>728</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>239</v>
@@ -39138,7 +39138,7 @@
         <v>728</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>237</v>
@@ -39155,7 +39155,7 @@
         <v>729</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>239</v>
@@ -39172,7 +39172,7 @@
         <v>729</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>237</v>
@@ -39189,7 +39189,7 @@
         <v>730</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>239</v>
@@ -39206,7 +39206,7 @@
         <v>730</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>237</v>
@@ -39223,7 +39223,7 @@
         <v>731</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>239</v>
@@ -39240,7 +39240,7 @@
         <v>731</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>237</v>
@@ -39257,7 +39257,7 @@
         <v>732</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>239</v>
@@ -39274,7 +39274,7 @@
         <v>732</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>237</v>
@@ -39291,7 +39291,7 @@
         <v>693</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>239</v>
@@ -39308,7 +39308,7 @@
         <v>733</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>239</v>
@@ -39325,7 +39325,7 @@
         <v>733</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>56</v>
+        <v>2011</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>237</v>
@@ -39342,7 +39342,7 @@
         <v>696</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>56</v>
+        <v>2012</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>239</v>
@@ -39359,7 +39359,7 @@
         <v>734</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>56</v>
+        <v>2012</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>239</v>
@@ -39376,7 +39376,7 @@
         <v>734</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>56</v>
+        <v>2012</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>237</v>
@@ -39393,7 +39393,7 @@
         <v>735</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>56</v>
+        <v>2012</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>239</v>
@@ -39410,7 +39410,7 @@
         <v>735</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>56</v>
+        <v>2012</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>237</v>
@@ -39427,7 +39427,7 @@
         <v>697</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>56</v>
+        <v>2012</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>239</v>
@@ -39444,7 +39444,7 @@
         <v>736</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>56</v>
+        <v>2012</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>239</v>
@@ -39461,7 +39461,7 @@
         <v>736</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>56</v>
+        <v>2012</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>237</v>
@@ -39478,7 +39478,7 @@
         <v>737</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>56</v>
+        <v>2012</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>239</v>
@@ -39494,8 +39494,8 @@
       <c r="A86" s="23" t="s">
         <v>737</v>
       </c>
-      <c r="B86" s="23" t="s">
-        <v>56</v>
+      <c r="B86" s="14" t="s">
+        <v>2012</v>
       </c>
       <c r="C86" s="23" t="s">
         <v>237</v>
@@ -39511,8 +39511,8 @@
       <c r="A87" s="23" t="s">
         <v>738</v>
       </c>
-      <c r="B87" s="23" t="s">
-        <v>56</v>
+      <c r="B87" s="14" t="s">
+        <v>2012</v>
       </c>
       <c r="C87" s="23" t="s">
         <v>239</v>
@@ -39528,8 +39528,8 @@
       <c r="A88" s="23" t="s">
         <v>738</v>
       </c>
-      <c r="B88" s="23" t="s">
-        <v>56</v>
+      <c r="B88" s="14" t="s">
+        <v>2012</v>
       </c>
       <c r="C88" s="23" t="s">
         <v>237</v>
@@ -39545,8 +39545,8 @@
       <c r="A89" s="23" t="s">
         <v>739</v>
       </c>
-      <c r="B89" s="23" t="s">
-        <v>56</v>
+      <c r="B89" s="14" t="s">
+        <v>2012</v>
       </c>
       <c r="C89" s="23" t="s">
         <v>239</v>
@@ -39562,8 +39562,8 @@
       <c r="A90" s="23" t="s">
         <v>739</v>
       </c>
-      <c r="B90" s="23" t="s">
-        <v>56</v>
+      <c r="B90" s="14" t="s">
+        <v>2012</v>
       </c>
       <c r="C90" s="23" t="s">
         <v>237</v>
@@ -39579,8 +39579,8 @@
       <c r="A91" s="23" t="s">
         <v>740</v>
       </c>
-      <c r="B91" s="23" t="s">
-        <v>56</v>
+      <c r="B91" s="14" t="s">
+        <v>2012</v>
       </c>
       <c r="C91" s="23" t="s">
         <v>239</v>
@@ -39596,8 +39596,8 @@
       <c r="A92" s="23" t="s">
         <v>740</v>
       </c>
-      <c r="B92" s="23" t="s">
-        <v>56</v>
+      <c r="B92" s="14" t="s">
+        <v>2012</v>
       </c>
       <c r="C92" s="23" t="s">
         <v>237</v>
@@ -39614,7 +39614,7 @@
         <v>741</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>58</v>
+        <v>2004</v>
       </c>
       <c r="C93" s="23" t="s">
         <v>267</v>
@@ -39631,7 +39631,7 @@
         <v>742</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>58</v>
+        <v>2004</v>
       </c>
       <c r="C94" s="23" t="s">
         <v>267</v>
@@ -39648,7 +39648,7 @@
         <v>743</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>58</v>
+        <v>2004</v>
       </c>
       <c r="C95" s="23" t="s">
         <v>267</v>
@@ -39665,7 +39665,7 @@
         <v>744</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>58</v>
+        <v>2004</v>
       </c>
       <c r="C96" s="23" t="s">
         <v>267</v>
@@ -39682,7 +39682,7 @@
         <v>745</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>58</v>
+        <v>2004</v>
       </c>
       <c r="C97" s="23" t="s">
         <v>267</v>
@@ -39699,7 +39699,7 @@
         <v>746</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>58</v>
+        <v>2004</v>
       </c>
       <c r="C98" s="23" t="s">
         <v>267</v>
@@ -39716,7 +39716,7 @@
         <v>747</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>58</v>
+        <v>2004</v>
       </c>
       <c r="C99" s="23" t="s">
         <v>267</v>
@@ -39733,7 +39733,7 @@
         <v>748</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>58</v>
+        <v>2004</v>
       </c>
       <c r="C100" s="23" t="s">
         <v>267</v>
@@ -39750,7 +39750,7 @@
         <v>749</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>58</v>
+        <v>2004</v>
       </c>
       <c r="C101" s="23" t="s">
         <v>267</v>
@@ -39767,7 +39767,7 @@
         <v>750</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>58</v>
+        <v>2004</v>
       </c>
       <c r="C102" s="23" t="s">
         <v>267</v>
@@ -39784,7 +39784,7 @@
         <v>751</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>58</v>
+        <v>2004</v>
       </c>
       <c r="C103" s="23" t="s">
         <v>267</v>
@@ -39801,7 +39801,7 @@
         <v>752</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>58</v>
+        <v>2004</v>
       </c>
       <c r="C104" s="23" t="s">
         <v>267</v>
@@ -39818,7 +39818,7 @@
         <v>753</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>58</v>
+        <v>2004</v>
       </c>
       <c r="C105" s="23" t="s">
         <v>267</v>
@@ -39835,7 +39835,7 @@
         <v>754</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>58</v>
+        <v>2004</v>
       </c>
       <c r="C106" s="23" t="s">
         <v>267</v>
@@ -39852,7 +39852,7 @@
         <v>755</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>58</v>
+        <v>2004</v>
       </c>
       <c r="C107" s="23" t="s">
         <v>267</v>
@@ -39869,7 +39869,7 @@
         <v>756</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>58</v>
+        <v>2006</v>
       </c>
       <c r="C108" s="23" t="s">
         <v>267</v>
@@ -39886,7 +39886,7 @@
         <v>757</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C109" s="23" t="s">
         <v>267</v>
@@ -39903,7 +39903,7 @@
         <v>758</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C110" s="23" t="s">
         <v>267</v>
@@ -39920,7 +39920,7 @@
         <v>759</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C111" s="23" t="s">
         <v>267</v>
@@ -39937,7 +39937,7 @@
         <v>760</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C112" s="23" t="s">
         <v>267</v>
@@ -39954,7 +39954,7 @@
         <v>761</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C113" s="23" t="s">
         <v>267</v>
@@ -39971,7 +39971,7 @@
         <v>762</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C114" s="23" t="s">
         <v>267</v>
@@ -39988,7 +39988,7 @@
         <v>763</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C115" s="23" t="s">
         <v>267</v>
@@ -40005,7 +40005,7 @@
         <v>764</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C116" s="23" t="s">
         <v>267</v>
@@ -40022,7 +40022,7 @@
         <v>765</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C117" s="23" t="s">
         <v>267</v>
@@ -40039,7 +40039,7 @@
         <v>766</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C118" s="23" t="s">
         <v>267</v>
@@ -40056,7 +40056,7 @@
         <v>767</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C119" s="23" t="s">
         <v>267</v>
@@ -40073,7 +40073,7 @@
         <v>768</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C120" s="23" t="s">
         <v>267</v>
@@ -40090,7 +40090,7 @@
         <v>769</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C121" s="23" t="s">
         <v>267</v>
@@ -40107,7 +40107,7 @@
         <v>770</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C122" s="23" t="s">
         <v>267</v>
@@ -40124,7 +40124,7 @@
         <v>771</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C123" s="23" t="s">
         <v>267</v>
@@ -40141,7 +40141,7 @@
         <v>772</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C124" s="23" t="s">
         <v>267</v>
@@ -40158,7 +40158,7 @@
         <v>773</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C125" s="23" t="s">
         <v>267</v>
@@ -40175,7 +40175,7 @@
         <v>774</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C126" s="23" t="s">
         <v>267</v>
@@ -40192,7 +40192,7 @@
         <v>775</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C127" s="23" t="s">
         <v>267</v>
@@ -40209,7 +40209,7 @@
         <v>776</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C128" s="23" t="s">
         <v>267</v>
@@ -40226,7 +40226,7 @@
         <v>777</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C129" s="23" t="s">
         <v>267</v>
@@ -40243,7 +40243,7 @@
         <v>778</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C130" s="23" t="s">
         <v>267</v>
@@ -40260,7 +40260,7 @@
         <v>779</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C131" s="23" t="s">
         <v>267</v>
@@ -40277,7 +40277,7 @@
         <v>780</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C132" s="23" t="s">
         <v>267</v>
@@ -40294,7 +40294,7 @@
         <v>781</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C133" s="23" t="s">
         <v>267</v>
@@ -40311,7 +40311,7 @@
         <v>782</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C134" s="23" t="s">
         <v>267</v>
@@ -40328,7 +40328,7 @@
         <v>783</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C135" s="23" t="s">
         <v>267</v>
@@ -40345,7 +40345,7 @@
         <v>784</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C136" s="23" t="s">
         <v>267</v>
@@ -40362,7 +40362,7 @@
         <v>785</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C137" s="23" t="s">
         <v>267</v>
@@ -40379,7 +40379,7 @@
         <v>786</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C138" s="23" t="s">
         <v>267</v>
@@ -40396,7 +40396,7 @@
         <v>787</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C139" s="23" t="s">
         <v>267</v>
@@ -40413,7 +40413,7 @@
         <v>788</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C140" s="23" t="s">
         <v>267</v>
@@ -40430,7 +40430,7 @@
         <v>789</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C141" s="23" t="s">
         <v>267</v>
@@ -40447,7 +40447,7 @@
         <v>790</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C142" s="23" t="s">
         <v>267</v>
@@ -40464,7 +40464,7 @@
         <v>791</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C143" s="23" t="s">
         <v>267</v>
@@ -40481,7 +40481,7 @@
         <v>792</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C144" s="23" t="s">
         <v>267</v>
@@ -40498,7 +40498,7 @@
         <v>793</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C145" s="23" t="s">
         <v>267</v>
@@ -40515,7 +40515,7 @@
         <v>794</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C146" s="23" t="s">
         <v>267</v>
@@ -40532,7 +40532,7 @@
         <v>795</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C147" s="23" t="s">
         <v>267</v>
@@ -40549,7 +40549,7 @@
         <v>796</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>58</v>
+        <v>2005</v>
       </c>
       <c r="C148" s="23" t="s">
         <v>267</v>
@@ -40566,7 +40566,7 @@
         <v>797</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>58</v>
+        <v>2007</v>
       </c>
       <c r="C149" s="23" t="s">
         <v>267</v>
@@ -40583,7 +40583,7 @@
         <v>798</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>58</v>
+        <v>2007</v>
       </c>
       <c r="C150" s="23" t="s">
         <v>267</v>
@@ -40600,7 +40600,7 @@
         <v>799</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>58</v>
+        <v>2007</v>
       </c>
       <c r="C151" s="23" t="s">
         <v>267</v>
@@ -40617,7 +40617,7 @@
         <v>800</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>58</v>
+        <v>2007</v>
       </c>
       <c r="C152" s="23" t="s">
         <v>267</v>
@@ -40634,7 +40634,7 @@
         <v>801</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>58</v>
+        <v>2007</v>
       </c>
       <c r="C153" s="23" t="s">
         <v>267</v>
@@ -40651,7 +40651,7 @@
         <v>802</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>58</v>
+        <v>2007</v>
       </c>
       <c r="C154" s="23" t="s">
         <v>267</v>
@@ -40668,7 +40668,7 @@
         <v>803</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>58</v>
+        <v>2007</v>
       </c>
       <c r="C155" s="23" t="s">
         <v>267</v>
@@ -40685,7 +40685,7 @@
         <v>804</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>58</v>
+        <v>2007</v>
       </c>
       <c r="C156" s="23" t="s">
         <v>267</v>
@@ -40702,7 +40702,7 @@
         <v>805</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>58</v>
+        <v>2007</v>
       </c>
       <c r="C157" s="23" t="s">
         <v>267</v>
@@ -40719,7 +40719,7 @@
         <v>806</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>58</v>
+        <v>2007</v>
       </c>
       <c r="C158" s="23" t="s">
         <v>267</v>
@@ -40736,7 +40736,7 @@
         <v>807</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>58</v>
+        <v>2007</v>
       </c>
       <c r="C159" s="23" t="s">
         <v>267</v>
@@ -40753,7 +40753,7 @@
         <v>808</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>58</v>
+        <v>2007</v>
       </c>
       <c r="C160" s="23" t="s">
         <v>267</v>
@@ -40770,7 +40770,7 @@
         <v>809</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>58</v>
+        <v>2007</v>
       </c>
       <c r="C161" s="23" t="s">
         <v>267</v>
@@ -40787,7 +40787,7 @@
         <v>810</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>58</v>
+        <v>2008</v>
       </c>
       <c r="C162" s="23" t="s">
         <v>267</v>
@@ -40804,7 +40804,7 @@
         <v>811</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>58</v>
+        <v>2008</v>
       </c>
       <c r="C163" s="23" t="s">
         <v>267</v>
@@ -40821,7 +40821,7 @@
         <v>812</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>58</v>
+        <v>2008</v>
       </c>
       <c r="C164" s="23" t="s">
         <v>267</v>
@@ -40838,7 +40838,7 @@
         <v>813</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>58</v>
+        <v>2008</v>
       </c>
       <c r="C165" s="23" t="s">
         <v>267</v>
@@ -40855,7 +40855,7 @@
         <v>814</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>58</v>
+        <v>2008</v>
       </c>
       <c r="C166" s="23" t="s">
         <v>267</v>
@@ -40872,7 +40872,7 @@
         <v>815</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>58</v>
+        <v>2008</v>
       </c>
       <c r="C167" s="23" t="s">
         <v>267</v>
@@ -40889,7 +40889,7 @@
         <v>816</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C168" s="23" t="s">
         <v>267</v>
@@ -40906,7 +40906,7 @@
         <v>817</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C169" s="23" t="s">
         <v>267</v>
@@ -40923,7 +40923,7 @@
         <v>818</v>
       </c>
       <c r="B170" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C170" s="23" t="s">
         <v>267</v>
@@ -40940,7 +40940,7 @@
         <v>819</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C171" s="23" t="s">
         <v>267</v>
@@ -40957,7 +40957,7 @@
         <v>820</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C172" s="23" t="s">
         <v>267</v>
@@ -40974,7 +40974,7 @@
         <v>821</v>
       </c>
       <c r="B173" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C173" s="23" t="s">
         <v>267</v>
@@ -40991,7 +40991,7 @@
         <v>822</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C174" s="23" t="s">
         <v>267</v>
@@ -41008,7 +41008,7 @@
         <v>823</v>
       </c>
       <c r="B175" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C175" s="23" t="s">
         <v>267</v>
@@ -41025,7 +41025,7 @@
         <v>824</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C176" s="23" t="s">
         <v>267</v>
@@ -41042,7 +41042,7 @@
         <v>825</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C177" s="23" t="s">
         <v>267</v>
@@ -41059,7 +41059,7 @@
         <v>826</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C178" s="23" t="s">
         <v>267</v>
@@ -41076,7 +41076,7 @@
         <v>827</v>
       </c>
       <c r="B179" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C179" s="23" t="s">
         <v>267</v>
@@ -41093,7 +41093,7 @@
         <v>828</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C180" s="23" t="s">
         <v>267</v>
@@ -41110,7 +41110,7 @@
         <v>829</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C181" s="23" t="s">
         <v>267</v>
@@ -41127,7 +41127,7 @@
         <v>830</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C182" s="23" t="s">
         <v>267</v>
@@ -41144,7 +41144,7 @@
         <v>831</v>
       </c>
       <c r="B183" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C183" s="23" t="s">
         <v>267</v>
@@ -41161,7 +41161,7 @@
         <v>832</v>
       </c>
       <c r="B184" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C184" s="23" t="s">
         <v>267</v>
@@ -41178,7 +41178,7 @@
         <v>833</v>
       </c>
       <c r="B185" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C185" s="23" t="s">
         <v>267</v>
@@ -41195,7 +41195,7 @@
         <v>834</v>
       </c>
       <c r="B186" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C186" s="23" t="s">
         <v>267</v>
@@ -41212,7 +41212,7 @@
         <v>835</v>
       </c>
       <c r="B187" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C187" s="23" t="s">
         <v>267</v>
@@ -41229,7 +41229,7 @@
         <v>836</v>
       </c>
       <c r="B188" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C188" s="23" t="s">
         <v>267</v>
@@ -41246,7 +41246,7 @@
         <v>837</v>
       </c>
       <c r="B189" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C189" s="23" t="s">
         <v>267</v>
@@ -41263,7 +41263,7 @@
         <v>838</v>
       </c>
       <c r="B190" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C190" s="23" t="s">
         <v>267</v>
@@ -41280,7 +41280,7 @@
         <v>839</v>
       </c>
       <c r="B191" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C191" s="23" t="s">
         <v>267</v>
@@ -41297,7 +41297,7 @@
         <v>840</v>
       </c>
       <c r="B192" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C192" s="23" t="s">
         <v>267</v>
@@ -41314,7 +41314,7 @@
         <v>841</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C193" s="23" t="s">
         <v>267</v>
@@ -41331,7 +41331,7 @@
         <v>842</v>
       </c>
       <c r="B194" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C194" s="23" t="s">
         <v>267</v>
@@ -41348,7 +41348,7 @@
         <v>843</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C195" s="23" t="s">
         <v>267</v>
@@ -41365,7 +41365,7 @@
         <v>844</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C196" s="23" t="s">
         <v>267</v>
@@ -41382,7 +41382,7 @@
         <v>845</v>
       </c>
       <c r="B197" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C197" s="23" t="s">
         <v>267</v>
@@ -41399,7 +41399,7 @@
         <v>846</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C198" s="23" t="s">
         <v>267</v>
@@ -41416,7 +41416,7 @@
         <v>847</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C199" s="23" t="s">
         <v>267</v>
@@ -41433,7 +41433,7 @@
         <v>848</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C200" s="23" t="s">
         <v>267</v>
@@ -41450,7 +41450,7 @@
         <v>849</v>
       </c>
       <c r="B201" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C201" s="23" t="s">
         <v>267</v>
@@ -41467,7 +41467,7 @@
         <v>850</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C202" s="23" t="s">
         <v>267</v>
@@ -41484,7 +41484,7 @@
         <v>851</v>
       </c>
       <c r="B203" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C203" s="23" t="s">
         <v>267</v>
@@ -41501,7 +41501,7 @@
         <v>852</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C204" s="23" t="s">
         <v>267</v>
@@ -41518,7 +41518,7 @@
         <v>853</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C205" s="23" t="s">
         <v>267</v>
@@ -41535,7 +41535,7 @@
         <v>854</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C206" s="23" t="s">
         <v>267</v>
@@ -41552,7 +41552,7 @@
         <v>855</v>
       </c>
       <c r="B207" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C207" s="23" t="s">
         <v>267</v>
@@ -41569,7 +41569,7 @@
         <v>856</v>
       </c>
       <c r="B208" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C208" s="23" t="s">
         <v>267</v>
@@ -41586,7 +41586,7 @@
         <v>857</v>
       </c>
       <c r="B209" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C209" s="23" t="s">
         <v>267</v>
@@ -41603,7 +41603,7 @@
         <v>858</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C210" s="23" t="s">
         <v>267</v>
@@ -41620,7 +41620,7 @@
         <v>859</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C211" s="23" t="s">
         <v>267</v>
@@ -41637,7 +41637,7 @@
         <v>860</v>
       </c>
       <c r="B212" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C212" s="23" t="s">
         <v>267</v>
@@ -41654,7 +41654,7 @@
         <v>861</v>
       </c>
       <c r="B213" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C213" s="23" t="s">
         <v>267</v>
@@ -41671,7 +41671,7 @@
         <v>862</v>
       </c>
       <c r="B214" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C214" s="23" t="s">
         <v>267</v>
@@ -41688,7 +41688,7 @@
         <v>863</v>
       </c>
       <c r="B215" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C215" s="23" t="s">
         <v>267</v>
@@ -41705,7 +41705,7 @@
         <v>864</v>
       </c>
       <c r="B216" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C216" s="23" t="s">
         <v>267</v>
@@ -41722,7 +41722,7 @@
         <v>865</v>
       </c>
       <c r="B217" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C217" s="23" t="s">
         <v>267</v>
@@ -41739,7 +41739,7 @@
         <v>866</v>
       </c>
       <c r="B218" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C218" s="23" t="s">
         <v>267</v>
@@ -41756,7 +41756,7 @@
         <v>867</v>
       </c>
       <c r="B219" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C219" s="23" t="s">
         <v>267</v>
@@ -41773,7 +41773,7 @@
         <v>868</v>
       </c>
       <c r="B220" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C220" s="23" t="s">
         <v>267</v>
@@ -41790,7 +41790,7 @@
         <v>869</v>
       </c>
       <c r="B221" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C221" s="23" t="s">
         <v>267</v>
@@ -41807,7 +41807,7 @@
         <v>870</v>
       </c>
       <c r="B222" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C222" s="23" t="s">
         <v>267</v>
@@ -41824,7 +41824,7 @@
         <v>871</v>
       </c>
       <c r="B223" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C223" s="23" t="s">
         <v>267</v>
@@ -41841,7 +41841,7 @@
         <v>872</v>
       </c>
       <c r="B224" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C224" s="23" t="s">
         <v>267</v>
@@ -41858,7 +41858,7 @@
         <v>873</v>
       </c>
       <c r="B225" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C225" s="23" t="s">
         <v>267</v>
@@ -41875,7 +41875,7 @@
         <v>874</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C226" s="23" t="s">
         <v>267</v>
@@ -41892,7 +41892,7 @@
         <v>875</v>
       </c>
       <c r="B227" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C227" s="23" t="s">
         <v>267</v>
@@ -41909,7 +41909,7 @@
         <v>876</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>58</v>
+        <v>2009</v>
       </c>
       <c r="C228" s="23" t="s">
         <v>267</v>
